--- a/responses/pacientes1.xlsx
+++ b/responses/pacientes1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="251">
   <si>
     <t>ID</t>
   </si>
@@ -89,9 +89,6 @@
     <t>wmne@live.com</t>
   </si>
   <si>
-    <t>hafv@yahoo.com</t>
-  </si>
-  <si>
     <t>fkiw@live.com</t>
   </si>
   <si>
@@ -161,69 +158,63 @@
     <t>admh@hotmail.com</t>
   </si>
   <si>
+    <t>xgxo@hotmail.com</t>
+  </si>
+  <si>
+    <t>uzwx@gmail.com</t>
+  </si>
+  <si>
+    <t>afbv@live.com</t>
+  </si>
+  <si>
+    <t>aqcx@gmail.com</t>
+  </si>
+  <si>
+    <t>aggn@gmail.com</t>
+  </si>
+  <si>
+    <t>vnwp@uol.com</t>
+  </si>
+  <si>
+    <t>jjqk@hotmail.com</t>
+  </si>
+  <si>
+    <t>krqj@gmail.com</t>
+  </si>
+  <si>
+    <t>ctbv@gmail.com</t>
+  </si>
+  <si>
+    <t>wtcs@live.com</t>
+  </si>
+  <si>
+    <t>cnry@gmail.com</t>
+  </si>
+  <si>
+    <t>gxkj@gmail.com</t>
+  </si>
+  <si>
+    <t>rzkj@uol.com</t>
+  </si>
+  <si>
+    <t>vttt@hotmail.com</t>
+  </si>
+  <si>
+    <t>jvfu@live.com</t>
+  </si>
+  <si>
+    <t>ztvp@yahoo.com</t>
+  </si>
+  <si>
+    <t>enbx@gmail.com</t>
+  </si>
+  <si>
     <t>vzne@hotmail.com</t>
   </si>
   <si>
-    <t>xgxo@hotmail.com</t>
-  </si>
-  <si>
-    <t>uzwx@gmail.com</t>
-  </si>
-  <si>
-    <t>afbv@live.com</t>
-  </si>
-  <si>
-    <t>aqcx@gmail.com</t>
-  </si>
-  <si>
-    <t>aggn@gmail.com</t>
-  </si>
-  <si>
-    <t>vnwp@uol.com</t>
-  </si>
-  <si>
-    <t>jjqk@hotmail.com</t>
-  </si>
-  <si>
-    <t>krqj@gmail.com</t>
-  </si>
-  <si>
-    <t>ctbv@gmail.com</t>
-  </si>
-  <si>
-    <t>wtcs@live.com</t>
-  </si>
-  <si>
-    <t>cnry@gmail.com</t>
-  </si>
-  <si>
-    <t>gxkj@gmail.com</t>
-  </si>
-  <si>
-    <t>rzkj@uol.com</t>
-  </si>
-  <si>
-    <t>vttt@hotmail.com</t>
-  </si>
-  <si>
-    <t>jvfu@live.com</t>
-  </si>
-  <si>
     <t>pbah@uol.com</t>
   </si>
   <si>
-    <t>igyv@live.com</t>
-  </si>
-  <si>
-    <t>lwqu@gmail.com</t>
-  </si>
-  <si>
-    <t>ztvp@yahoo.com</t>
-  </si>
-  <si>
-    <t>enbx@gmail.com</t>
-  </si>
-  <si>
     <t>Manuela Bernardo</t>
   </si>
   <si>
@@ -239,9 +230,6 @@
     <t>Davi Heitor</t>
   </si>
   <si>
-    <t>Cecília Renzo</t>
-  </si>
-  <si>
     <t>Gabriel Miguel</t>
   </si>
   <si>
@@ -302,66 +290,60 @@
     <t>Heitor Renzo</t>
   </si>
   <si>
+    <t>Théo Gael</t>
+  </si>
+  <si>
+    <t>Heitor Helena</t>
+  </si>
+  <si>
+    <t>Heitor Sophia</t>
+  </si>
+  <si>
+    <t>Maitê Liz</t>
+  </si>
+  <si>
+    <t>Davi Alice</t>
+  </si>
+  <si>
+    <t>Arthur Maria Alice</t>
+  </si>
+  <si>
+    <t>Renzo Théo</t>
+  </si>
+  <si>
+    <t>Noah Cecília</t>
+  </si>
+  <si>
+    <t>Maitê Ravi</t>
+  </si>
+  <si>
+    <t>Maria Alice Noah</t>
+  </si>
+  <si>
+    <t>Liz Cecília</t>
+  </si>
+  <si>
+    <t>Liz Isabella</t>
+  </si>
+  <si>
+    <t>Laura Isabella</t>
+  </si>
+  <si>
+    <t>Bernardo Laura</t>
+  </si>
+  <si>
+    <t>Isabella Ravi</t>
+  </si>
+  <si>
+    <t>Sophia Maitê</t>
+  </si>
+  <si>
     <t>Heitor Heitor</t>
   </si>
   <si>
-    <t>Théo Gael</t>
-  </si>
-  <si>
-    <t>Heitor Helena</t>
-  </si>
-  <si>
-    <t>Heitor Sophia</t>
-  </si>
-  <si>
-    <t>Maitê Liz</t>
-  </si>
-  <si>
-    <t>Davi Alice</t>
-  </si>
-  <si>
-    <t>Arthur Maria Alice</t>
-  </si>
-  <si>
-    <t>Renzo Théo</t>
-  </si>
-  <si>
-    <t>Noah Cecília</t>
-  </si>
-  <si>
-    <t>Maitê Ravi</t>
-  </si>
-  <si>
-    <t>Maria Alice Noah</t>
-  </si>
-  <si>
-    <t>Liz Cecília</t>
-  </si>
-  <si>
-    <t>Liz Isabella</t>
-  </si>
-  <si>
-    <t>Laura Isabella</t>
-  </si>
-  <si>
-    <t>Bernardo Laura</t>
-  </si>
-  <si>
     <t>Renzo Maitê</t>
   </si>
   <si>
-    <t>Laura Liz</t>
-  </si>
-  <si>
-    <t>Alice Helena</t>
-  </si>
-  <si>
-    <t>Isabella Ravi</t>
-  </si>
-  <si>
-    <t>Sophia Maitê</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
@@ -377,9 +359,6 @@
     <t>57</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>58</t>
   </si>
   <si>
@@ -449,69 +428,63 @@
     <t>93</t>
   </si>
   <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
     <t>79</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>29</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>Pronto Socorro</t>
   </si>
   <si>
@@ -635,9 +608,6 @@
     <t>(34)92691-3225</t>
   </si>
   <si>
-    <t>(34)97169-7573</t>
-  </si>
-  <si>
     <t>(34)96116-4139</t>
   </si>
   <si>
@@ -707,69 +677,63 @@
     <t>(34)98349-8456</t>
   </si>
   <si>
+    <t>(34)96829-4182</t>
+  </si>
+  <si>
+    <t>(34)93317-7516</t>
+  </si>
+  <si>
+    <t>(34)97442-1443</t>
+  </si>
+  <si>
+    <t>(34)92938-7963</t>
+  </si>
+  <si>
+    <t>(34)96792-4632</t>
+  </si>
+  <si>
+    <t>(34)96164-7381</t>
+  </si>
+  <si>
+    <t>(34)99343-1223</t>
+  </si>
+  <si>
+    <t>(34)94422-6927</t>
+  </si>
+  <si>
+    <t>(34)97328-3468</t>
+  </si>
+  <si>
+    <t>(34)98597-2239</t>
+  </si>
+  <si>
+    <t>(34)97479-7434</t>
+  </si>
+  <si>
+    <t>(34)93129-6485</t>
+  </si>
+  <si>
+    <t>(34)98156-5748</t>
+  </si>
+  <si>
+    <t>(34)96143-3325</t>
+  </si>
+  <si>
+    <t>(34)93274-9337</t>
+  </si>
+  <si>
+    <t>(34)99984-2315</t>
+  </si>
+  <si>
+    <t>(34)96457-7375</t>
+  </si>
+  <si>
     <t>(34)95898-3997</t>
   </si>
   <si>
-    <t>(34)96829-4182</t>
-  </si>
-  <si>
-    <t>(34)93317-7516</t>
-  </si>
-  <si>
-    <t>(34)97442-1443</t>
-  </si>
-  <si>
-    <t>(34)92938-7963</t>
-  </si>
-  <si>
-    <t>(34)96792-4632</t>
-  </si>
-  <si>
-    <t>(34)96164-7381</t>
-  </si>
-  <si>
-    <t>(34)99343-1223</t>
-  </si>
-  <si>
-    <t>(34)94422-6927</t>
-  </si>
-  <si>
-    <t>(34)97328-3468</t>
-  </si>
-  <si>
-    <t>(34)98597-2239</t>
-  </si>
-  <si>
-    <t>(34)97479-7434</t>
-  </si>
-  <si>
-    <t>(34)93129-6485</t>
-  </si>
-  <si>
-    <t>(34)98156-5748</t>
-  </si>
-  <si>
-    <t>(34)96143-3325</t>
-  </si>
-  <si>
-    <t>(34)93274-9337</t>
-  </si>
-  <si>
     <t>(34)98227-1485</t>
   </si>
   <si>
-    <t>(34)92396-1892</t>
-  </si>
-  <si>
-    <t>(34)93564-4496</t>
-  </si>
-  <si>
-    <t>(34)99984-2315</t>
-  </si>
-  <si>
-    <t>(34)96457-7375</t>
-  </si>
-  <si>
     <t>Dor abdominal</t>
   </si>
   <si>
@@ -788,7 +752,19 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t/>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>12/02/2023 19:29:59</t>
+  </si>
+  <si>
+    <t>12/02/2023 19:29:47</t>
+  </si>
+  <si>
+    <t>12/02/2023 19:30:07</t>
+  </si>
+  <si>
+    <t>12/02/2023 19:30:27</t>
   </si>
 </sst>
 </file>
@@ -909,58 +885,58 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M2" t="s">
         <v>188</v>
       </c>
-      <c r="K2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" t="s">
-        <v>197</v>
-      </c>
       <c r="N2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="O2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="P2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q2" t="s">
-        <v>257</v>
-      </c>
-      <c r="R2" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S2" t="s">
-        <v>257</v>
-      </c>
-      <c r="T2" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3">
@@ -971,58 +947,58 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" t="s">
         <v>189</v>
       </c>
-      <c r="K3" t="s">
-        <v>192</v>
-      </c>
-      <c r="L3" t="s">
-        <v>196</v>
-      </c>
-      <c r="M3" t="s">
-        <v>198</v>
-      </c>
       <c r="N3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="O3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="P3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q3" t="s">
-        <v>257</v>
-      </c>
-      <c r="R3" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S3" t="s">
-        <v>257</v>
-      </c>
-      <c r="T3" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T3" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4">
@@ -1033,58 +1009,58 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" t="s">
         <v>178</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K4" t="s">
         <v>183</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>187</v>
       </c>
-      <c r="J4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L4" t="s">
-        <v>196</v>
-      </c>
       <c r="M4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="N4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="O4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="P4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q4" t="s">
-        <v>257</v>
-      </c>
-      <c r="R4" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S4" t="s">
-        <v>257</v>
-      </c>
-      <c r="T4" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T4" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5">
@@ -1095,58 +1071,58 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" t="s">
         <v>179</v>
       </c>
-      <c r="H5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I5" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" t="s">
-        <v>188</v>
-      </c>
       <c r="K5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="L5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="N5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="O5" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P5" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q5" t="s">
-        <v>257</v>
-      </c>
-      <c r="R5" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S5" t="s">
-        <v>257</v>
-      </c>
-      <c r="T5" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T5" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6">
@@ -1157,2848 +1133,2662 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" t="s">
         <v>172</v>
       </c>
-      <c r="G6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" t="s">
-        <v>181</v>
-      </c>
       <c r="I6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" t="s">
+        <v>183</v>
+      </c>
+      <c r="L6" t="s">
         <v>187</v>
       </c>
-      <c r="J6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K6" t="s">
-        <v>192</v>
-      </c>
-      <c r="L6" t="s">
-        <v>196</v>
-      </c>
       <c r="M6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="N6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="O6" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P6" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q6" t="s">
-        <v>257</v>
-      </c>
-      <c r="R6" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S6" t="s">
-        <v>257</v>
-      </c>
-      <c r="T6" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T6" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" t="s">
         <v>168</v>
       </c>
-      <c r="F7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" t="s">
-        <v>176</v>
-      </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M7" t="s">
         <v>188</v>
       </c>
-      <c r="K7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M7" t="s">
-        <v>200</v>
-      </c>
       <c r="N7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="O7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="P7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q7" t="s">
-        <v>257</v>
-      </c>
-      <c r="R7" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S7" t="s">
-        <v>257</v>
-      </c>
-      <c r="T7" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T7" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" t="s">
         <v>170</v>
       </c>
-      <c r="F8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" t="s">
-        <v>177</v>
-      </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L8" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M8" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="N8" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O8" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="P8" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q8" t="s">
-        <v>257</v>
-      </c>
-      <c r="R8" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S8" t="s">
-        <v>257</v>
-      </c>
-      <c r="T8" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T8" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" t="s">
         <v>168</v>
       </c>
-      <c r="F9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" t="s">
         <v>179</v>
       </c>
-      <c r="H9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L9" t="s">
         <v>187</v>
       </c>
-      <c r="J9" t="s">
-        <v>190</v>
-      </c>
-      <c r="K9" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" t="s">
-        <v>196</v>
-      </c>
       <c r="M9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="N9" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="O9" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="P9" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q9" t="s">
-        <v>257</v>
-      </c>
-      <c r="R9" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S9" t="s">
-        <v>257</v>
-      </c>
-      <c r="T9" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T9" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I10" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J10" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L10" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N10" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="O10" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="P10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q10" t="s">
-        <v>257</v>
-      </c>
-      <c r="R10" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S10" t="s">
-        <v>257</v>
-      </c>
-      <c r="T10" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T10" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" t="s">
         <v>187</v>
       </c>
-      <c r="J11" t="s">
-        <v>188</v>
-      </c>
-      <c r="K11" t="s">
-        <v>194</v>
-      </c>
-      <c r="L11" t="s">
-        <v>186</v>
-      </c>
       <c r="M11" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="N11" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="O11" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="P11" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q11" t="s">
-        <v>257</v>
-      </c>
-      <c r="R11" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S11" t="s">
-        <v>257</v>
-      </c>
-      <c r="T11" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T11" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H12" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I12" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J12" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K12" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="L12" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M12" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="N12" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="O12" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P12" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q12" t="s">
-        <v>257</v>
-      </c>
-      <c r="R12" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S12" t="s">
-        <v>257</v>
-      </c>
-      <c r="T12" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T12" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" t="s">
         <v>168</v>
       </c>
-      <c r="F13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" t="s">
-        <v>180</v>
-      </c>
       <c r="H13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" t="s">
         <v>186</v>
       </c>
-      <c r="J13" t="s">
-        <v>190</v>
-      </c>
-      <c r="K13" t="s">
-        <v>192</v>
-      </c>
       <c r="L13" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M13" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="N13" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="O13" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="P13" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q13" t="s">
-        <v>257</v>
-      </c>
-      <c r="R13" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S13" t="s">
-        <v>257</v>
-      </c>
-      <c r="T13" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T13" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H14" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I14" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" t="s">
         <v>190</v>
       </c>
-      <c r="K14" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14" t="s">
-        <v>186</v>
-      </c>
-      <c r="M14" t="s">
-        <v>200</v>
-      </c>
       <c r="N14" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O14" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="P14" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q14" t="s">
-        <v>257</v>
-      </c>
-      <c r="R14" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S14" t="s">
-        <v>257</v>
-      </c>
-      <c r="T14" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T14" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" t="s">
         <v>176</v>
       </c>
-      <c r="H15" t="s">
-        <v>184</v>
-      </c>
       <c r="I15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="O15" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="P15" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q15" t="s">
-        <v>257</v>
-      </c>
-      <c r="R15" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S15" t="s">
-        <v>257</v>
-      </c>
-      <c r="T15" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T15" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" t="s">
         <v>189</v>
       </c>
-      <c r="K16" t="s">
-        <v>192</v>
-      </c>
-      <c r="L16" t="s">
-        <v>186</v>
-      </c>
-      <c r="M16" t="s">
-        <v>200</v>
-      </c>
       <c r="N16" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O16" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P16" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q16" t="s">
-        <v>257</v>
-      </c>
-      <c r="R16" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S16" t="s">
-        <v>257</v>
-      </c>
-      <c r="T16" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T16" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" t="s">
         <v>173</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>178</v>
       </c>
-      <c r="H17" t="s">
-        <v>183</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
         <v>187</v>
       </c>
-      <c r="J17" t="s">
-        <v>190</v>
-      </c>
-      <c r="K17" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" t="s">
-        <v>186</v>
-      </c>
       <c r="M17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="O17" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P17" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q17" t="s">
-        <v>257</v>
-      </c>
-      <c r="R17" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S17" t="s">
-        <v>257</v>
-      </c>
-      <c r="T17" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T17" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
         <v>169</v>
       </c>
-      <c r="F18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" t="s">
-        <v>180</v>
-      </c>
       <c r="H18" t="s">
+        <v>175</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
         <v>182</v>
       </c>
-      <c r="I18" t="s">
-        <v>187</v>
-      </c>
-      <c r="J18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" t="s">
-        <v>193</v>
-      </c>
       <c r="L18" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M18" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="N18" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P18" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q18" t="s">
-        <v>257</v>
-      </c>
-      <c r="R18" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S18" t="s">
-        <v>257</v>
-      </c>
-      <c r="T18" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T18" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
         <v>184</v>
       </c>
-      <c r="I19" t="s">
-        <v>186</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="s">
         <v>188</v>
       </c>
-      <c r="K19" t="s">
-        <v>191</v>
-      </c>
-      <c r="L19" t="s">
-        <v>186</v>
-      </c>
-      <c r="M19" t="s">
-        <v>197</v>
-      </c>
       <c r="N19" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="O19" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P19" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q19" t="s">
-        <v>257</v>
-      </c>
-      <c r="R19" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S19" t="s">
-        <v>257</v>
-      </c>
-      <c r="T19" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T19" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
         <v>167</v>
       </c>
-      <c r="F20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" t="s">
-        <v>180</v>
-      </c>
       <c r="H20" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
         <v>186</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="s">
         <v>190</v>
       </c>
-      <c r="K20" t="s">
-        <v>193</v>
-      </c>
-      <c r="L20" t="s">
-        <v>186</v>
-      </c>
-      <c r="M20" t="s">
-        <v>197</v>
-      </c>
       <c r="N20" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q20" t="s">
-        <v>257</v>
-      </c>
-      <c r="R20" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S20" t="s">
-        <v>257</v>
-      </c>
-      <c r="T20" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" t="s">
         <v>166</v>
       </c>
-      <c r="F21" t="s">
-        <v>172</v>
-      </c>
       <c r="G21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" t="s">
         <v>176</v>
       </c>
-      <c r="H21" t="s">
-        <v>183</v>
-      </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="N21" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P21" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q21" t="s">
-        <v>257</v>
-      </c>
-      <c r="R21" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R21" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S21" t="s">
-        <v>257</v>
-      </c>
-      <c r="T21" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T21" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G22" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N22" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="P22" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q22" t="s">
-        <v>257</v>
-      </c>
-      <c r="R22" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S22" t="s">
-        <v>257</v>
-      </c>
-      <c r="T22" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T22" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G23" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H23" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="L23" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M23" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="P23" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q23" t="s">
-        <v>257</v>
-      </c>
-      <c r="R23" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S23" t="s">
-        <v>257</v>
-      </c>
-      <c r="T23" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" t="s">
         <v>170</v>
       </c>
-      <c r="F24" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" t="s">
         <v>180</v>
       </c>
-      <c r="H24" t="s">
-        <v>185</v>
-      </c>
-      <c r="I24" t="s">
-        <v>186</v>
-      </c>
-      <c r="J24" t="s">
-        <v>189</v>
-      </c>
       <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="s">
         <v>191</v>
       </c>
-      <c r="L24" t="s">
-        <v>196</v>
-      </c>
-      <c r="M24" t="s">
-        <v>198</v>
-      </c>
       <c r="N24" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P24" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q24" t="s">
-        <v>257</v>
-      </c>
-      <c r="R24" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S24" t="s">
-        <v>257</v>
-      </c>
-      <c r="T24" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T24" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s">
         <v>171</v>
       </c>
-      <c r="G25" t="s">
-        <v>179</v>
-      </c>
       <c r="H25" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" t="s">
         <v>185</v>
       </c>
-      <c r="I25" t="s">
-        <v>186</v>
-      </c>
-      <c r="J25" t="s">
-        <v>189</v>
-      </c>
-      <c r="K25" t="s">
-        <v>193</v>
-      </c>
       <c r="L25" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M25" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P25" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q25" t="s">
-        <v>257</v>
-      </c>
-      <c r="R25" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S25" t="s">
-        <v>257</v>
-      </c>
-      <c r="T25" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T25" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G26" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I26" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26" t="s">
         <v>187</v>
       </c>
-      <c r="J26" t="s">
-        <v>190</v>
-      </c>
-      <c r="K26" t="s">
-        <v>194</v>
-      </c>
-      <c r="L26" t="s">
-        <v>186</v>
-      </c>
       <c r="M26" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="O26" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P26" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q26" t="s">
-        <v>257</v>
-      </c>
-      <c r="R26" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S26" t="s">
-        <v>257</v>
-      </c>
-      <c r="T26" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T26" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" t="s">
+        <v>175</v>
+      </c>
+      <c r="I27" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" t="s">
         <v>179</v>
       </c>
-      <c r="H27" t="s">
-        <v>185</v>
-      </c>
-      <c r="I27" t="s">
-        <v>186</v>
-      </c>
-      <c r="J27" t="s">
-        <v>188</v>
-      </c>
       <c r="K27" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M27" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="N27" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P27" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q27" t="s">
-        <v>257</v>
-      </c>
-      <c r="R27" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S27" t="s">
-        <v>257</v>
-      </c>
-      <c r="T27" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T27" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H28" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J28" t="s">
+        <v>179</v>
+      </c>
+      <c r="K28" t="s">
         <v>184</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>187</v>
       </c>
-      <c r="J28" t="s">
-        <v>188</v>
-      </c>
-      <c r="K28" t="s">
-        <v>193</v>
-      </c>
-      <c r="L28" t="s">
-        <v>196</v>
-      </c>
       <c r="M28" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O28" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P28" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q28" t="s">
-        <v>257</v>
-      </c>
-      <c r="R28" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S28" t="s">
-        <v>257</v>
-      </c>
-      <c r="T28" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T28" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F29" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="G29" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H29" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I29" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J29" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K29" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M29" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="N29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="O29" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="P29" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q29" t="s">
-        <v>257</v>
-      </c>
-      <c r="R29" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S29" t="s">
-        <v>257</v>
-      </c>
-      <c r="T29" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T29" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" t="s">
         <v>170</v>
       </c>
-      <c r="F30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" t="s">
         <v>178</v>
       </c>
-      <c r="H30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" t="s">
-        <v>186</v>
-      </c>
       <c r="J30" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K30" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L30" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M30" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="P30" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q30" t="s">
-        <v>257</v>
-      </c>
-      <c r="R30" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S30" t="s">
-        <v>257</v>
-      </c>
-      <c r="T30" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T30" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H31" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" t="s">
         <v>184</v>
       </c>
-      <c r="I31" t="s">
-        <v>187</v>
-      </c>
-      <c r="J31" t="s">
-        <v>188</v>
-      </c>
-      <c r="K31" t="s">
-        <v>193</v>
-      </c>
       <c r="L31" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M31" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="N31" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="O31" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="P31" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q31" t="s">
-        <v>257</v>
-      </c>
-      <c r="R31" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S31" t="s">
-        <v>257</v>
-      </c>
-      <c r="T31" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T31" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" t="s">
         <v>166</v>
       </c>
-      <c r="F32" t="s">
-        <v>172</v>
-      </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="H32" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I32" t="s">
+        <v>178</v>
+      </c>
+      <c r="J32" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32" t="s">
+        <v>182</v>
+      </c>
+      <c r="L32" t="s">
         <v>187</v>
       </c>
-      <c r="J32" t="s">
-        <v>190</v>
-      </c>
-      <c r="K32" t="s">
-        <v>194</v>
-      </c>
-      <c r="L32" t="s">
-        <v>186</v>
-      </c>
       <c r="M32" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="N32" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O32" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="P32" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q32" t="s">
-        <v>257</v>
-      </c>
-      <c r="R32" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S32" t="s">
-        <v>257</v>
-      </c>
-      <c r="T32" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T32" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" t="s">
         <v>169</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>173</v>
       </c>
-      <c r="G33" t="s">
-        <v>178</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" t="s">
         <v>181</v>
       </c>
-      <c r="I33" t="s">
-        <v>186</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
+        <v>183</v>
+      </c>
+      <c r="L33" t="s">
+        <v>177</v>
+      </c>
+      <c r="M33" t="s">
         <v>188</v>
       </c>
-      <c r="K33" t="s">
-        <v>193</v>
-      </c>
-      <c r="L33" t="s">
-        <v>186</v>
-      </c>
-      <c r="M33" t="s">
-        <v>198</v>
-      </c>
       <c r="N33" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="O33" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="P33" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q33" t="s">
-        <v>257</v>
-      </c>
-      <c r="R33" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S33" t="s">
-        <v>257</v>
-      </c>
-      <c r="T33" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T33" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H34" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I34" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J34" t="s">
+        <v>181</v>
+      </c>
+      <c r="K34" t="s">
+        <v>185</v>
+      </c>
+      <c r="L34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M34" t="s">
         <v>189</v>
       </c>
-      <c r="K34" t="s">
-        <v>191</v>
-      </c>
-      <c r="L34" t="s">
-        <v>196</v>
-      </c>
-      <c r="M34" t="s">
-        <v>201</v>
-      </c>
       <c r="N34" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="O34" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="P34" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q34" t="s">
-        <v>257</v>
-      </c>
-      <c r="R34" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S34" t="s">
-        <v>257</v>
-      </c>
-      <c r="T34" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T34" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" t="s">
         <v>168</v>
       </c>
-      <c r="F35" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" t="s">
         <v>178</v>
       </c>
-      <c r="H35" t="s">
-        <v>182</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
+        <v>180</v>
+      </c>
+      <c r="K35" t="s">
         <v>186</v>
       </c>
-      <c r="J35" t="s">
-        <v>190</v>
-      </c>
-      <c r="K35" t="s">
-        <v>192</v>
-      </c>
       <c r="L35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="N35" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="O35" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P35" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q35" t="s">
-        <v>257</v>
-      </c>
-      <c r="R35" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R35" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S35" t="s">
-        <v>257</v>
-      </c>
-      <c r="T35" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T35" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" t="s">
         <v>173</v>
       </c>
-      <c r="G36" t="s">
-        <v>179</v>
-      </c>
-      <c r="H36" t="s">
-        <v>183</v>
-      </c>
       <c r="I36" t="s">
+        <v>177</v>
+      </c>
+      <c r="J36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K36" t="s">
         <v>186</v>
       </c>
-      <c r="J36" t="s">
-        <v>190</v>
-      </c>
-      <c r="K36" t="s">
-        <v>194</v>
-      </c>
       <c r="L36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M36" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="N36" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="O36" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="P36" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q36" t="s">
-        <v>257</v>
-      </c>
-      <c r="R36" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S36" t="s">
-        <v>257</v>
-      </c>
-      <c r="T36" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T36" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F37" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G37" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H37" t="s">
+        <v>175</v>
+      </c>
+      <c r="I37" t="s">
+        <v>178</v>
+      </c>
+      <c r="J37" t="s">
+        <v>179</v>
+      </c>
+      <c r="K37" t="s">
         <v>182</v>
       </c>
-      <c r="I37" t="s">
-        <v>187</v>
-      </c>
-      <c r="J37" t="s">
-        <v>189</v>
-      </c>
-      <c r="K37" t="s">
-        <v>195</v>
-      </c>
       <c r="L37" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N37" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="O37" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q37" t="s">
-        <v>257</v>
-      </c>
-      <c r="R37" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S37" t="s">
-        <v>257</v>
-      </c>
-      <c r="T37" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T37" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G38" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H38" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I38" t="s">
+        <v>177</v>
+      </c>
+      <c r="J38" t="s">
+        <v>181</v>
+      </c>
+      <c r="K38" t="s">
         <v>186</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
+        <v>187</v>
+      </c>
+      <c r="M38" t="s">
         <v>190</v>
       </c>
-      <c r="K38" t="s">
-        <v>195</v>
-      </c>
-      <c r="L38" t="s">
-        <v>196</v>
-      </c>
-      <c r="M38" t="s">
-        <v>197</v>
-      </c>
       <c r="N38" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="O38" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P38" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q38" t="s">
-        <v>257</v>
-      </c>
-      <c r="R38" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S38" t="s">
-        <v>257</v>
-      </c>
-      <c r="T38" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T38" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F39" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G39" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H39" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I39" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J39" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K39" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L39" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M39" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="N39" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="O39" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="P39" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q39" t="s">
-        <v>257</v>
-      </c>
-      <c r="R39" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S39" t="s">
-        <v>257</v>
-      </c>
-      <c r="T39" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T39" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" t="s">
         <v>167</v>
       </c>
-      <c r="F40" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" t="s">
-        <v>178</v>
-      </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I40" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J40" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="K40" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="L40" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M40" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="N40" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="O40" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="P40" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q40" t="s">
-        <v>257</v>
-      </c>
-      <c r="R40" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S40" t="s">
-        <v>257</v>
-      </c>
-      <c r="T40" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T40" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G41" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="I41" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" t="s">
+        <v>182</v>
+      </c>
+      <c r="L41" t="s">
         <v>187</v>
       </c>
-      <c r="J41" t="s">
-        <v>190</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
         <v>192</v>
       </c>
-      <c r="L41" t="s">
-        <v>186</v>
-      </c>
-      <c r="M41" t="s">
-        <v>199</v>
-      </c>
       <c r="N41" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="O41" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="P41" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q41" t="s">
-        <v>257</v>
-      </c>
-      <c r="R41" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S41" t="s">
-        <v>257</v>
-      </c>
-      <c r="T41" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T41" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="B42" t="s">
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F42" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" t="s">
         <v>175</v>
       </c>
-      <c r="G42" t="s">
-        <v>176</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" t="s">
+        <v>181</v>
+      </c>
+      <c r="K42" t="s">
         <v>182</v>
       </c>
-      <c r="I42" t="s">
-        <v>186</v>
-      </c>
-      <c r="J42" t="s">
-        <v>190</v>
-      </c>
-      <c r="K42" t="s">
-        <v>192</v>
-      </c>
       <c r="L42" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M42" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="N42" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="O42" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q42" t="s">
-        <v>257</v>
-      </c>
-      <c r="R42" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S42" t="s">
-        <v>257</v>
-      </c>
-      <c r="T42" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T42" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F43" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" t="s">
+        <v>167</v>
+      </c>
+      <c r="H43" t="s">
         <v>172</v>
       </c>
-      <c r="G43" t="s">
-        <v>178</v>
-      </c>
-      <c r="H43" t="s">
-        <v>184</v>
-      </c>
       <c r="I43" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J43" t="s">
+        <v>181</v>
+      </c>
+      <c r="K43" t="s">
+        <v>183</v>
+      </c>
+      <c r="L43" t="s">
+        <v>177</v>
+      </c>
+      <c r="M43" t="s">
         <v>189</v>
       </c>
-      <c r="K43" t="s">
-        <v>191</v>
-      </c>
-      <c r="L43" t="s">
-        <v>196</v>
-      </c>
-      <c r="M43" t="s">
-        <v>201</v>
-      </c>
       <c r="N43" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="O43" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="P43" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q43" t="s">
-        <v>257</v>
-      </c>
-      <c r="R43" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S43" t="s">
-        <v>257</v>
-      </c>
-      <c r="T43" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T43" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H44" t="s">
+        <v>172</v>
+      </c>
+      <c r="I44" t="s">
+        <v>178</v>
+      </c>
+      <c r="J44" t="s">
+        <v>179</v>
+      </c>
+      <c r="K44" t="s">
         <v>184</v>
       </c>
-      <c r="I44" t="s">
-        <v>187</v>
-      </c>
-      <c r="J44" t="s">
-        <v>190</v>
-      </c>
-      <c r="K44" t="s">
-        <v>191</v>
-      </c>
       <c r="L44" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M44" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="N44" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="O44" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q44" t="s">
-        <v>257</v>
-      </c>
-      <c r="R44" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S44" t="s">
-        <v>257</v>
-      </c>
-      <c r="T44" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T44" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" t="s">
         <v>159</v>
       </c>
-      <c r="E45" t="s">
-        <v>170</v>
-      </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G45" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" t="s">
         <v>176</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
+        <v>178</v>
+      </c>
+      <c r="J45" t="s">
         <v>181</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>186</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
+        <v>187</v>
+      </c>
+      <c r="M45" t="s">
         <v>190</v>
       </c>
-      <c r="K45" t="s">
-        <v>192</v>
-      </c>
-      <c r="L45" t="s">
-        <v>186</v>
-      </c>
-      <c r="M45" t="s">
-        <v>198</v>
-      </c>
       <c r="N45" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="O45" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="P45" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q45" t="s">
-        <v>257</v>
-      </c>
-      <c r="R45" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S45" t="s">
-        <v>257</v>
-      </c>
-      <c r="T45" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T45" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45.0</v>
+        <v>50.0</v>
       </c>
       <c r="B46" t="s">
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" t="s">
         <v>160</v>
       </c>
-      <c r="E46" t="s">
-        <v>168</v>
-      </c>
       <c r="F46" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G46" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H46" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I46" t="s">
+        <v>177</v>
+      </c>
+      <c r="J46" t="s">
+        <v>180</v>
+      </c>
+      <c r="K46" t="s">
+        <v>186</v>
+      </c>
+      <c r="L46" t="s">
         <v>187</v>
       </c>
-      <c r="J46" t="s">
-        <v>188</v>
-      </c>
-      <c r="K46" t="s">
-        <v>193</v>
-      </c>
-      <c r="L46" t="s">
-        <v>186</v>
-      </c>
       <c r="M46" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="N46" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="O46" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="P46" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="Q46" t="s">
-        <v>257</v>
-      </c>
-      <c r="R46" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="R46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="S46" t="s">
-        <v>257</v>
-      </c>
-      <c r="T46" t="s">
-        <v>258</v>
+        <v>245</v>
+      </c>
+      <c r="T46" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46.0</v>
+        <v>30.0</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F47" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G47" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H47" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I47" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J47" t="s">
+        <v>179</v>
+      </c>
+      <c r="K47" t="s">
+        <v>184</v>
+      </c>
+      <c r="L47" t="s">
+        <v>187</v>
+      </c>
+      <c r="M47" t="s">
         <v>188</v>
       </c>
-      <c r="K47" t="s">
-        <v>192</v>
-      </c>
-      <c r="L47" t="s">
-        <v>186</v>
-      </c>
-      <c r="M47" t="s">
-        <v>198</v>
-      </c>
       <c r="N47" t="s">
+        <v>238</v>
+      </c>
+      <c r="O47" t="s">
+        <v>242</v>
+      </c>
+      <c r="P47" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>246</v>
+      </c>
+      <c r="R47" t="s">
         <v>247</v>
       </c>
-      <c r="O47" t="s">
-        <v>253</v>
-      </c>
-      <c r="P47" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>257</v>
-      </c>
-      <c r="R47" t="s">
-        <v>258</v>
-      </c>
       <c r="S47" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="T47" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47.0</v>
+        <v>46.0</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F48" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" t="s">
         <v>168</v>
       </c>
-      <c r="F48" t="s">
-        <v>171</v>
-      </c>
-      <c r="G48" t="s">
-        <v>177</v>
-      </c>
       <c r="H48" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I48" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J48" t="s">
+        <v>179</v>
+      </c>
+      <c r="K48" t="s">
+        <v>183</v>
+      </c>
+      <c r="L48" t="s">
+        <v>177</v>
+      </c>
+      <c r="M48" t="s">
         <v>189</v>
       </c>
-      <c r="K48" t="s">
-        <v>192</v>
-      </c>
-      <c r="L48" t="s">
-        <v>186</v>
-      </c>
-      <c r="M48" t="s">
-        <v>199</v>
-      </c>
       <c r="N48" t="s">
+        <v>239</v>
+      </c>
+      <c r="O48" t="s">
+        <v>241</v>
+      </c>
+      <c r="P48" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>246</v>
+      </c>
+      <c r="R48" t="s">
         <v>248</v>
       </c>
-      <c r="O48" t="s">
-        <v>254</v>
-      </c>
-      <c r="P48" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>257</v>
-      </c>
-      <c r="R48" t="s">
-        <v>258</v>
-      </c>
       <c r="S48" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="T48" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" t="s">
-        <v>173</v>
-      </c>
-      <c r="G49" t="s">
-        <v>179</v>
-      </c>
-      <c r="H49" t="s">
-        <v>182</v>
-      </c>
-      <c r="I49" t="s">
-        <v>186</v>
-      </c>
-      <c r="J49" t="s">
-        <v>188</v>
-      </c>
-      <c r="K49" t="s">
-        <v>194</v>
-      </c>
-      <c r="L49" t="s">
-        <v>196</v>
-      </c>
-      <c r="M49" t="s">
-        <v>201</v>
-      </c>
-      <c r="N49" t="s">
-        <v>249</v>
-      </c>
-      <c r="O49" t="s">
-        <v>254</v>
-      </c>
-      <c r="P49" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>257</v>
-      </c>
-      <c r="R49" t="s">
-        <v>258</v>
-      </c>
-      <c r="S49" t="s">
-        <v>257</v>
-      </c>
-      <c r="T49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" t="s">
-        <v>174</v>
-      </c>
-      <c r="G50" t="s">
-        <v>177</v>
-      </c>
-      <c r="H50" t="s">
-        <v>185</v>
-      </c>
-      <c r="I50" t="s">
-        <v>187</v>
-      </c>
-      <c r="J50" t="s">
-        <v>190</v>
-      </c>
-      <c r="K50" t="s">
-        <v>195</v>
-      </c>
-      <c r="L50" t="s">
-        <v>196</v>
-      </c>
-      <c r="M50" t="s">
-        <v>199</v>
-      </c>
-      <c r="N50" t="s">
         <v>250</v>
-      </c>
-      <c r="O50" t="s">
-        <v>255</v>
-      </c>
-      <c r="P50" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>257</v>
-      </c>
-      <c r="R50" t="s">
-        <v>258</v>
-      </c>
-      <c r="S50" t="s">
-        <v>257</v>
-      </c>
-      <c r="T50" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" t="s">
-        <v>165</v>
-      </c>
-      <c r="E51" t="s">
-        <v>169</v>
-      </c>
-      <c r="F51" t="s">
-        <v>173</v>
-      </c>
-      <c r="G51" t="s">
-        <v>176</v>
-      </c>
-      <c r="H51" t="s">
-        <v>185</v>
-      </c>
-      <c r="I51" t="s">
-        <v>186</v>
-      </c>
-      <c r="J51" t="s">
-        <v>189</v>
-      </c>
-      <c r="K51" t="s">
-        <v>195</v>
-      </c>
-      <c r="L51" t="s">
-        <v>196</v>
-      </c>
-      <c r="M51" t="s">
-        <v>198</v>
-      </c>
-      <c r="N51" t="s">
-        <v>251</v>
-      </c>
-      <c r="O51" t="s">
-        <v>252</v>
-      </c>
-      <c r="P51" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>257</v>
-      </c>
-      <c r="R51" t="s">
-        <v>258</v>
-      </c>
-      <c r="S51" t="s">
-        <v>257</v>
-      </c>
-      <c r="T51" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/responses/pacientes1.xlsx
+++ b/responses/pacientes1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -74,415 +74,445 @@
     <t>data_fim_transp</t>
   </si>
   <si>
-    <t>tsor@live.com</t>
-  </si>
-  <si>
-    <t>lnzz@gmail.com</t>
-  </si>
-  <si>
-    <t>oywg@uol.com</t>
-  </si>
-  <si>
-    <t>czeu@yahoo.com</t>
-  </si>
-  <si>
-    <t>wmne@live.com</t>
-  </si>
-  <si>
-    <t>fkiw@live.com</t>
-  </si>
-  <si>
-    <t>asww@hotmail.com</t>
-  </si>
-  <si>
-    <t>podk@live.com</t>
-  </si>
-  <si>
-    <t>ifdn@live.com</t>
-  </si>
-  <si>
-    <t>gldn@yahoo.com</t>
-  </si>
-  <si>
-    <t>evlu@uol.com</t>
-  </si>
-  <si>
-    <t>ytsf@uol.com</t>
-  </si>
-  <si>
-    <t>kcgu@live.com</t>
-  </si>
-  <si>
-    <t>evns@live.com</t>
-  </si>
-  <si>
-    <t>jidk@gmail.com</t>
-  </si>
-  <si>
-    <t>ofgj@yahoo.com</t>
-  </si>
-  <si>
-    <t>fmgz@live.com</t>
-  </si>
-  <si>
-    <t>tcqb@gmail.com</t>
-  </si>
-  <si>
-    <t>ynjc@gmail.com</t>
-  </si>
-  <si>
-    <t>badw@live.com</t>
-  </si>
-  <si>
-    <t>fygj@uol.com</t>
-  </si>
-  <si>
-    <t>spby@yahoo.com</t>
-  </si>
-  <si>
-    <t>qjss@gmail.com</t>
-  </si>
-  <si>
-    <t>avpm@hotmail.com</t>
-  </si>
-  <si>
-    <t>aluo@uol.com</t>
-  </si>
-  <si>
-    <t>rdre@live.com</t>
-  </si>
-  <si>
-    <t>simv@live.com</t>
-  </si>
-  <si>
-    <t>admh@hotmail.com</t>
-  </si>
-  <si>
-    <t>xgxo@hotmail.com</t>
-  </si>
-  <si>
-    <t>uzwx@gmail.com</t>
-  </si>
-  <si>
-    <t>afbv@live.com</t>
-  </si>
-  <si>
-    <t>aqcx@gmail.com</t>
-  </si>
-  <si>
-    <t>aggn@gmail.com</t>
-  </si>
-  <si>
-    <t>vnwp@uol.com</t>
-  </si>
-  <si>
-    <t>jjqk@hotmail.com</t>
-  </si>
-  <si>
-    <t>krqj@gmail.com</t>
-  </si>
-  <si>
-    <t>ctbv@gmail.com</t>
-  </si>
-  <si>
-    <t>wtcs@live.com</t>
-  </si>
-  <si>
-    <t>cnry@gmail.com</t>
-  </si>
-  <si>
-    <t>gxkj@gmail.com</t>
-  </si>
-  <si>
-    <t>rzkj@uol.com</t>
-  </si>
-  <si>
-    <t>vttt@hotmail.com</t>
-  </si>
-  <si>
-    <t>jvfu@live.com</t>
-  </si>
-  <si>
-    <t>ztvp@yahoo.com</t>
-  </si>
-  <si>
-    <t>enbx@gmail.com</t>
-  </si>
-  <si>
-    <t>vzne@hotmail.com</t>
-  </si>
-  <si>
-    <t>pbah@uol.com</t>
-  </si>
-  <si>
-    <t>Manuela Bernardo</t>
+    <t>gtip@gmail.com</t>
+  </si>
+  <si>
+    <t>qxgn@hotmail.com</t>
+  </si>
+  <si>
+    <t>fzca@gmail.com</t>
+  </si>
+  <si>
+    <t>pxwi@hotmail.com</t>
+  </si>
+  <si>
+    <t>dzpx@gmail.com</t>
+  </si>
+  <si>
+    <t>obzb@gmail.com</t>
+  </si>
+  <si>
+    <t>yrlx@uol.com</t>
+  </si>
+  <si>
+    <t>cwbi@uol.com</t>
+  </si>
+  <si>
+    <t>frvc@hotmail.com</t>
+  </si>
+  <si>
+    <t>djvp@gmail.com</t>
+  </si>
+  <si>
+    <t>lnfi@gmail.com</t>
+  </si>
+  <si>
+    <t>isjh@uol.com</t>
+  </si>
+  <si>
+    <t>rcdi@gmail.com</t>
+  </si>
+  <si>
+    <t>aiap@gmail.com</t>
+  </si>
+  <si>
+    <t>remc@live.com</t>
+  </si>
+  <si>
+    <t>xvpj@live.com</t>
+  </si>
+  <si>
+    <t>httk@live.com</t>
+  </si>
+  <si>
+    <t>ywvb@live.com</t>
+  </si>
+  <si>
+    <t>htie@yahoo.com</t>
+  </si>
+  <si>
+    <t>oovi@uol.com</t>
+  </si>
+  <si>
+    <t>ykin@live.com</t>
+  </si>
+  <si>
+    <t>brkz@gmail.com</t>
+  </si>
+  <si>
+    <t>rjcy@yahoo.com</t>
+  </si>
+  <si>
+    <t>xaam@live.com</t>
+  </si>
+  <si>
+    <t>mamh@live.com</t>
+  </si>
+  <si>
+    <t>inta@gmail.com</t>
+  </si>
+  <si>
+    <t>bdon@uol.com</t>
+  </si>
+  <si>
+    <t>qqbf@live.com</t>
+  </si>
+  <si>
+    <t>ziab@yahoo.com</t>
+  </si>
+  <si>
+    <t>bzjo@uol.com</t>
+  </si>
+  <si>
+    <t>gyxx@uol.com</t>
+  </si>
+  <si>
+    <t>rfdo@gmail.com</t>
+  </si>
+  <si>
+    <t>lans@live.com</t>
+  </si>
+  <si>
+    <t>ggeb@gmail.com</t>
+  </si>
+  <si>
+    <t>yovw@gmail.com</t>
+  </si>
+  <si>
+    <t>qgui@yahoo.com</t>
+  </si>
+  <si>
+    <t>rclu@yahoo.com</t>
+  </si>
+  <si>
+    <t>xaru@hotmail.com</t>
+  </si>
+  <si>
+    <t>cpzx@uol.com</t>
+  </si>
+  <si>
+    <t>dlsy@hotmail.com</t>
+  </si>
+  <si>
+    <t>bvcx@hotmail.com</t>
+  </si>
+  <si>
+    <t>rizp@gmail.com</t>
+  </si>
+  <si>
+    <t>plqp@yahoo.com</t>
+  </si>
+  <si>
+    <t>faru@yahoo.com</t>
+  </si>
+  <si>
+    <t>iqtd@yahoo.com</t>
+  </si>
+  <si>
+    <t>pltk@uol.com</t>
+  </si>
+  <si>
+    <t>dzvg@gmail.com</t>
+  </si>
+  <si>
+    <t>ozla@gmail.com</t>
+  </si>
+  <si>
+    <t>rdey@live.com</t>
+  </si>
+  <si>
+    <t>krba@live.com</t>
+  </si>
+  <si>
+    <t>Cecília Renzo</t>
+  </si>
+  <si>
+    <t>Arthur Miguel</t>
+  </si>
+  <si>
+    <t>Bernardo Helena</t>
+  </si>
+  <si>
+    <t>Renzo Heitor</t>
+  </si>
+  <si>
+    <t>Ravi Manuela</t>
+  </si>
+  <si>
+    <t>Cecília Davi</t>
+  </si>
+  <si>
+    <t>Isabella Gabriel</t>
+  </si>
+  <si>
+    <t>Gael Bernardo</t>
+  </si>
+  <si>
+    <t>Bernardo Arthur</t>
+  </si>
+  <si>
+    <t>Alice Alice</t>
+  </si>
+  <si>
+    <t>Isabella Laura</t>
+  </si>
+  <si>
+    <t>Gael Heitor</t>
+  </si>
+  <si>
+    <t>Sophia Helena</t>
+  </si>
+  <si>
+    <t>Liz Maitê</t>
+  </si>
+  <si>
+    <t>Heitor Maitê</t>
+  </si>
+  <si>
+    <t>Laura Alice</t>
+  </si>
+  <si>
+    <t>Heitor Bernardo</t>
+  </si>
+  <si>
+    <t>Renzo Maria Alice</t>
+  </si>
+  <si>
+    <t>Renzo Gabriel</t>
+  </si>
+  <si>
+    <t>Cecília Manuela</t>
+  </si>
+  <si>
+    <t>Cecília Ravi</t>
+  </si>
+  <si>
+    <t>Bernardo Manuela</t>
+  </si>
+  <si>
+    <t>Laura Helena</t>
+  </si>
+  <si>
+    <t>Alice Gael</t>
+  </si>
+  <si>
+    <t>Davi Sophia</t>
+  </si>
+  <si>
+    <t>Ravi Liz</t>
+  </si>
+  <si>
+    <t>Manuela Renzo</t>
+  </si>
+  <si>
+    <t>Alice Arthur</t>
+  </si>
+  <si>
+    <t>Bernardo Maitê</t>
+  </si>
+  <si>
+    <t>Heitor Renzo</t>
+  </si>
+  <si>
+    <t>Sophia Manuela</t>
+  </si>
+  <si>
+    <t>Isabella Maria Alice</t>
+  </si>
+  <si>
+    <t>Renzo Gael</t>
+  </si>
+  <si>
+    <t>Davi Davi</t>
+  </si>
+  <si>
+    <t>Maria Alice Maria Alice</t>
+  </si>
+  <si>
+    <t>Laura Miguel</t>
+  </si>
+  <si>
+    <t>Alice Davi</t>
   </si>
   <si>
     <t>Renzo Bernardo</t>
   </si>
   <si>
-    <t>Manuela Miguel</t>
-  </si>
-  <si>
-    <t>Gael Davi</t>
-  </si>
-  <si>
-    <t>Davi Heitor</t>
-  </si>
-  <si>
-    <t>Gabriel Miguel</t>
-  </si>
-  <si>
-    <t>Ravi Maitê</t>
-  </si>
-  <si>
-    <t>Gael Théo</t>
-  </si>
-  <si>
-    <t>Miguel Manuela</t>
-  </si>
-  <si>
-    <t>Ravi Gael</t>
-  </si>
-  <si>
-    <t>Gael Laura</t>
-  </si>
-  <si>
-    <t>Isabella Miguel</t>
-  </si>
-  <si>
-    <t>Sophia Ravi</t>
-  </si>
-  <si>
-    <t>Noah Gabriel</t>
-  </si>
-  <si>
-    <t>Helena Maitê</t>
-  </si>
-  <si>
-    <t>Isabella Sophia</t>
-  </si>
-  <si>
-    <t>Arthur Miguel</t>
-  </si>
-  <si>
-    <t>Sophia Renzo</t>
-  </si>
-  <si>
-    <t>Liz Helena</t>
-  </si>
-  <si>
-    <t>Isabella Bernardo</t>
-  </si>
-  <si>
-    <t>Ravi Noah</t>
-  </si>
-  <si>
-    <t>Laura Gael</t>
-  </si>
-  <si>
-    <t>Arthur Sophia</t>
-  </si>
-  <si>
-    <t>Heitor Bernardo</t>
-  </si>
-  <si>
-    <t>Heitor Renzo</t>
-  </si>
-  <si>
-    <t>Théo Gael</t>
-  </si>
-  <si>
-    <t>Heitor Helena</t>
-  </si>
-  <si>
-    <t>Heitor Sophia</t>
-  </si>
-  <si>
-    <t>Maitê Liz</t>
-  </si>
-  <si>
-    <t>Davi Alice</t>
-  </si>
-  <si>
-    <t>Arthur Maria Alice</t>
-  </si>
-  <si>
-    <t>Renzo Théo</t>
-  </si>
-  <si>
-    <t>Noah Cecília</t>
-  </si>
-  <si>
-    <t>Maitê Ravi</t>
-  </si>
-  <si>
-    <t>Maria Alice Noah</t>
-  </si>
-  <si>
-    <t>Liz Cecília</t>
-  </si>
-  <si>
-    <t>Liz Isabella</t>
-  </si>
-  <si>
-    <t>Laura Isabella</t>
-  </si>
-  <si>
-    <t>Bernardo Laura</t>
-  </si>
-  <si>
-    <t>Isabella Ravi</t>
-  </si>
-  <si>
-    <t>Sophia Maitê</t>
-  </si>
-  <si>
-    <t>Heitor Heitor</t>
-  </si>
-  <si>
-    <t>Renzo Maitê</t>
+    <t>Laura Davi</t>
+  </si>
+  <si>
+    <t>Manuela Théo</t>
+  </si>
+  <si>
+    <t>Liz Alice</t>
+  </si>
+  <si>
+    <t>Arthur Isabella</t>
+  </si>
+  <si>
+    <t>Gabriel Davi</t>
+  </si>
+  <si>
+    <t>Renzo Cecília</t>
+  </si>
+  <si>
+    <t>Maria Alice Laura</t>
+  </si>
+  <si>
+    <t>Théo Davi</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>06</t>
   </si>
   <si>
     <t>02</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>57</t>
+    <t>96</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>58</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>94</t>
   </si>
   <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>29</t>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Enfermaria 2</t>
   </si>
   <si>
     <t>Pronto Socorro</t>
@@ -491,73 +521,73 @@
     <t>Enfermaria 1</t>
   </si>
   <si>
-    <t>Enfermaria 2</t>
+    <t>Centro Cirúrgico</t>
   </si>
   <si>
     <t>UTI</t>
   </si>
   <si>
-    <t>Centro Cirúrgico</t>
-  </si>
-  <si>
     <t>EXAMES</t>
   </si>
   <si>
+    <t>ASSISTENCIAL</t>
+  </si>
+  <si>
+    <t>TRANSFERÊNCIA</t>
+  </si>
+  <si>
+    <t>ÓBITO-ACOMPANHAMENTO</t>
+  </si>
+  <si>
     <t>ALTA-ACOMPANHAMENTO</t>
   </si>
   <si>
-    <t>ASSISTENCIAL</t>
-  </si>
-  <si>
-    <t>TRANSFERÊNCIA</t>
-  </si>
-  <si>
-    <t>ÓBITO-ACOMPANHAMENTO</t>
-  </si>
-  <si>
     <t>Ultrassom</t>
   </si>
   <si>
+    <t>Hemograma</t>
+  </si>
+  <si>
     <t>Tomografia</t>
   </si>
   <si>
-    <t>Hemograma</t>
+    <t>Raio-x</t>
   </si>
   <si>
     <t>Ressonância</t>
   </si>
   <si>
-    <t>Raio-x</t>
+    <t>DEAMBULANDO</t>
+  </si>
+  <si>
+    <t>CAMA</t>
+  </si>
+  <si>
+    <t>BERÇO</t>
   </si>
   <si>
     <t>CADEIRA</t>
   </si>
   <si>
-    <t>BERÇO</t>
-  </si>
-  <si>
     <t>MACA</t>
   </si>
   <si>
-    <t>CAMA</t>
-  </si>
-  <si>
-    <t>DEAMBULANDO</t>
+    <t>NÃO, MAQUEIRO PROVIDENCIAR</t>
   </si>
   <si>
     <t>SIM</t>
   </si>
   <si>
-    <t>NÃO, MAQUEIRO PROVIDENCIAR</t>
-  </si>
-  <si>
     <t>PRECAUÇÃO RESPIRATÓRIA - MAQUEIRO PARAMENTAR</t>
   </si>
   <si>
+    <t>EM USO DE O2- NECESSITA DE ACOMPANHAMENTO ASSISTENCIAL</t>
+  </si>
+  <si>
     <t>PRECAUÇÃO DE CONTATO - MAQUEIRO PARAMENTAR</t>
   </si>
   <si>
-    <t>EM USO DE O2- NECESSITA DE ACOMPANHAMENTO ASSISTENCIAL</t>
+    <t>VERDE (POUCO URGENTE) - DORES LEVES, TONTURAS, RESFRIADOS, NÁUSEAS, ETC.</t>
   </si>
   <si>
     <t>VERMELHO (IMEDIATO) - PCR, HEMORRAGIAS, CONVULSÕES, DOR NO PEITO, ETC.</t>
@@ -572,199 +602,193 @@
     <t>AZUL (NÃO URGENTE) - DORES CRÔNICAS JÁ DIAGNOSTICADAS, ETC.</t>
   </si>
   <si>
-    <t>VERDE (POUCO URGENTE) - DORES LEVES, TONTURAS, RESFRIADOS, NÁUSEAS, ETC.</t>
-  </si>
-  <si>
     <t>NÃO</t>
   </si>
   <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
     <t>Familiar</t>
   </si>
   <si>
+    <t>Médico</t>
+  </si>
+  <si>
     <t>Enfermeiro</t>
   </si>
   <si>
-    <t>Médico</t>
-  </si>
-  <si>
-    <t>Paciente</t>
-  </si>
-  <si>
-    <t>Outro</t>
-  </si>
-  <si>
-    <t>(34)93898-9359</t>
-  </si>
-  <si>
-    <t>(34)96918-1294</t>
-  </si>
-  <si>
-    <t>(34)94835-7818</t>
-  </si>
-  <si>
-    <t>(34)91765-6855</t>
-  </si>
-  <si>
-    <t>(34)92691-3225</t>
-  </si>
-  <si>
-    <t>(34)96116-4139</t>
-  </si>
-  <si>
-    <t>(34)97535-5546</t>
-  </si>
-  <si>
-    <t>(34)94158-4927</t>
-  </si>
-  <si>
-    <t>(34)97296-8394</t>
-  </si>
-  <si>
-    <t>(34)93637-1185</t>
-  </si>
-  <si>
-    <t>(34)93938-8934</t>
-  </si>
-  <si>
-    <t>(34)92425-5712</t>
-  </si>
-  <si>
-    <t>(34)94267-8625</t>
-  </si>
-  <si>
-    <t>(34)99956-3156</t>
-  </si>
-  <si>
-    <t>(34)96814-1563</t>
-  </si>
-  <si>
-    <t>(34)94135-5633</t>
-  </si>
-  <si>
-    <t>(34)94465-6154</t>
-  </si>
-  <si>
-    <t>(34)98631-5172</t>
-  </si>
-  <si>
-    <t>(34)98943-5528</t>
-  </si>
-  <si>
-    <t>(34)99177-4133</t>
-  </si>
-  <si>
-    <t>(34)93995-2222</t>
-  </si>
-  <si>
-    <t>(34)99136-4824</t>
-  </si>
-  <si>
-    <t>(34)92783-3785</t>
-  </si>
-  <si>
-    <t>(34)98674-1128</t>
-  </si>
-  <si>
-    <t>(34)96334-1872</t>
-  </si>
-  <si>
-    <t>(34)95271-8583</t>
-  </si>
-  <si>
-    <t>(34)96291-9585</t>
-  </si>
-  <si>
-    <t>(34)98349-8456</t>
-  </si>
-  <si>
-    <t>(34)96829-4182</t>
-  </si>
-  <si>
-    <t>(34)93317-7516</t>
-  </si>
-  <si>
-    <t>(34)97442-1443</t>
-  </si>
-  <si>
-    <t>(34)92938-7963</t>
-  </si>
-  <si>
-    <t>(34)96792-4632</t>
-  </si>
-  <si>
-    <t>(34)96164-7381</t>
-  </si>
-  <si>
-    <t>(34)99343-1223</t>
-  </si>
-  <si>
-    <t>(34)94422-6927</t>
-  </si>
-  <si>
-    <t>(34)97328-3468</t>
-  </si>
-  <si>
-    <t>(34)98597-2239</t>
-  </si>
-  <si>
-    <t>(34)97479-7434</t>
-  </si>
-  <si>
-    <t>(34)93129-6485</t>
-  </si>
-  <si>
-    <t>(34)98156-5748</t>
-  </si>
-  <si>
-    <t>(34)96143-3325</t>
-  </si>
-  <si>
-    <t>(34)93274-9337</t>
-  </si>
-  <si>
-    <t>(34)99984-2315</t>
-  </si>
-  <si>
-    <t>(34)96457-7375</t>
-  </si>
-  <si>
-    <t>(34)95898-3997</t>
-  </si>
-  <si>
-    <t>(34)98227-1485</t>
+    <t>(34)95561-4357</t>
+  </si>
+  <si>
+    <t>(34)92583-4456</t>
+  </si>
+  <si>
+    <t>(34)99215-3734</t>
+  </si>
+  <si>
+    <t>(34)93914-4382</t>
+  </si>
+  <si>
+    <t>(34)93915-7761</t>
+  </si>
+  <si>
+    <t>(34)99992-6356</t>
+  </si>
+  <si>
+    <t>(34)93517-2327</t>
+  </si>
+  <si>
+    <t>(34)92173-5921</t>
+  </si>
+  <si>
+    <t>(34)96732-8895</t>
+  </si>
+  <si>
+    <t>(34)98161-4921</t>
+  </si>
+  <si>
+    <t>(34)97957-2283</t>
+  </si>
+  <si>
+    <t>(34)94135-6239</t>
+  </si>
+  <si>
+    <t>(34)99658-4297</t>
+  </si>
+  <si>
+    <t>(34)96449-8146</t>
+  </si>
+  <si>
+    <t>(34)94597-4966</t>
+  </si>
+  <si>
+    <t>(34)99342-2856</t>
+  </si>
+  <si>
+    <t>(34)98122-9936</t>
+  </si>
+  <si>
+    <t>(34)97292-5235</t>
+  </si>
+  <si>
+    <t>(34)92694-1352</t>
+  </si>
+  <si>
+    <t>(34)94974-3391</t>
+  </si>
+  <si>
+    <t>(34)98179-2695</t>
+  </si>
+  <si>
+    <t>(34)96838-8665</t>
+  </si>
+  <si>
+    <t>(34)96264-4559</t>
+  </si>
+  <si>
+    <t>(34)95683-3346</t>
+  </si>
+  <si>
+    <t>(34)96833-7171</t>
+  </si>
+  <si>
+    <t>(34)96279-1858</t>
+  </si>
+  <si>
+    <t>(34)97945-6963</t>
+  </si>
+  <si>
+    <t>(34)96229-5277</t>
+  </si>
+  <si>
+    <t>(34)97221-5923</t>
+  </si>
+  <si>
+    <t>(34)99432-3175</t>
+  </si>
+  <si>
+    <t>(34)95159-1199</t>
+  </si>
+  <si>
+    <t>(34)94818-6539</t>
+  </si>
+  <si>
+    <t>(34)95414-3363</t>
+  </si>
+  <si>
+    <t>(34)97195-6384</t>
+  </si>
+  <si>
+    <t>(34)92541-1132</t>
+  </si>
+  <si>
+    <t>(34)93776-8683</t>
+  </si>
+  <si>
+    <t>(34)99759-5973</t>
+  </si>
+  <si>
+    <t>(34)96174-6686</t>
+  </si>
+  <si>
+    <t>(34)98624-3136</t>
+  </si>
+  <si>
+    <t>(34)94848-6649</t>
+  </si>
+  <si>
+    <t>(34)98634-4489</t>
+  </si>
+  <si>
+    <t>(34)91161-8968</t>
+  </si>
+  <si>
+    <t>(34)93782-1918</t>
+  </si>
+  <si>
+    <t>(34)97948-6887</t>
+  </si>
+  <si>
+    <t>(34)93251-1596</t>
+  </si>
+  <si>
+    <t>(34)91348-5453</t>
+  </si>
+  <si>
+    <t>(34)94444-7829</t>
+  </si>
+  <si>
+    <t>(34)93179-6424</t>
+  </si>
+  <si>
+    <t>(34)93754-2458</t>
+  </si>
+  <si>
+    <t>(34)95447-4573</t>
+  </si>
+  <si>
+    <t>Necessita acompanhamento</t>
+  </si>
+  <si>
+    <t>Nenhuma</t>
   </si>
   <si>
     <t>Dor abdominal</t>
   </si>
   <si>
-    <t>Necessita acompanhamento</t>
-  </si>
-  <si>
-    <t>Nenhuma</t>
-  </si>
-  <si>
     <t>Paciente agitado</t>
   </si>
   <si>
-    <t>12/02/2023 18:52:21</t>
+    <t>12/02/2023 19:35:14</t>
   </si>
   <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>12/02/2023 19:29:59</t>
-  </si>
-  <si>
-    <t>12/02/2023 19:29:47</t>
-  </si>
-  <si>
-    <t>12/02/2023 19:30:07</t>
-  </si>
-  <si>
-    <t>12/02/2023 19:30:27</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -885,58 +909,58 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="N2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q2" t="s">
-        <v>245</v>
-      </c>
-      <c r="R2" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R2" t="s">
+        <v>258</v>
       </c>
       <c r="S2" t="s">
-        <v>245</v>
-      </c>
-      <c r="T2" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="3">
@@ -947,58 +971,58 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="I3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="N3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="O3" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="P3" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q3" t="s">
-        <v>245</v>
-      </c>
-      <c r="R3" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R3" t="s">
+        <v>258</v>
       </c>
       <c r="S3" t="s">
-        <v>245</v>
-      </c>
-      <c r="T3" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="4">
@@ -1009,58 +1033,58 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M4" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="N4" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="O4" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="P4" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q4" t="s">
-        <v>245</v>
-      </c>
-      <c r="R4" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R4" t="s">
+        <v>258</v>
       </c>
       <c r="S4" t="s">
-        <v>245</v>
-      </c>
-      <c r="T4" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="5">
@@ -1071,58 +1095,58 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L5" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N5" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="O5" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P5" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q5" t="s">
-        <v>245</v>
-      </c>
-      <c r="R5" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R5" t="s">
+        <v>258</v>
       </c>
       <c r="S5" t="s">
-        <v>245</v>
-      </c>
-      <c r="T5" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6">
@@ -1133,2662 +1157,2848 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="L6" t="s">
         <v>187</v>
       </c>
       <c r="M6" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="N6" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="O6" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q6" t="s">
-        <v>245</v>
-      </c>
-      <c r="R6" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R6" t="s">
+        <v>258</v>
       </c>
       <c r="S6" t="s">
-        <v>245</v>
-      </c>
-      <c r="T6" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="L7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="N7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="O7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="P7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q7" t="s">
-        <v>245</v>
-      </c>
-      <c r="R7" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R7" t="s">
+        <v>258</v>
       </c>
       <c r="S7" t="s">
-        <v>245</v>
-      </c>
-      <c r="T7" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T7" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L8" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M8" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="N8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="O8" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="P8" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q8" t="s">
-        <v>245</v>
-      </c>
-      <c r="R8" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R8" t="s">
+        <v>258</v>
       </c>
       <c r="S8" t="s">
-        <v>245</v>
-      </c>
-      <c r="T8" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J9" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K9" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L9" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M9" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="N9" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="O9" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="P9" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q9" t="s">
-        <v>245</v>
-      </c>
-      <c r="R9" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R9" t="s">
+        <v>258</v>
       </c>
       <c r="S9" t="s">
-        <v>245</v>
-      </c>
-      <c r="T9" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J10" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L10" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N10" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="O10" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q10" t="s">
-        <v>245</v>
-      </c>
-      <c r="R10" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R10" t="s">
+        <v>258</v>
       </c>
       <c r="S10" t="s">
-        <v>245</v>
-      </c>
-      <c r="T10" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T10" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H11" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K11" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L11" t="s">
         <v>187</v>
       </c>
       <c r="M11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="N11" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O11" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="P11" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q11" t="s">
-        <v>245</v>
-      </c>
-      <c r="R11" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R11" t="s">
+        <v>258</v>
       </c>
       <c r="S11" t="s">
-        <v>245</v>
-      </c>
-      <c r="T11" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T11" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I12" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J12" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K12" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L12" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M12" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="N12" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="O12" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q12" t="s">
-        <v>245</v>
-      </c>
-      <c r="R12" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R12" t="s">
+        <v>258</v>
       </c>
       <c r="S12" t="s">
-        <v>245</v>
-      </c>
-      <c r="T12" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T12" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J13" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K13" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L13" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M13" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N13" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="O13" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="P13" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q13" t="s">
-        <v>245</v>
-      </c>
-      <c r="R13" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R13" t="s">
+        <v>258</v>
       </c>
       <c r="S13" t="s">
-        <v>245</v>
-      </c>
-      <c r="T13" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T13" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="H14" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I14" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J14" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K14" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L14" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M14" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="N14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O14" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="P14" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q14" t="s">
-        <v>245</v>
-      </c>
-      <c r="R14" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R14" t="s">
+        <v>258</v>
       </c>
       <c r="S14" t="s">
-        <v>245</v>
-      </c>
-      <c r="T14" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H15" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J15" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K15" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L15" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M15" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="N15" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="O15" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="P15" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q15" t="s">
-        <v>245</v>
-      </c>
-      <c r="R15" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R15" t="s">
+        <v>258</v>
       </c>
       <c r="S15" t="s">
-        <v>245</v>
-      </c>
-      <c r="T15" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T15" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H16" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J16" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M16" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="N16" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="O16" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P16" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q16" t="s">
-        <v>245</v>
-      </c>
-      <c r="R16" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R16" t="s">
+        <v>258</v>
       </c>
       <c r="S16" t="s">
-        <v>245</v>
-      </c>
-      <c r="T16" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T16" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H17" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
         <v>187</v>
       </c>
       <c r="M17" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="O17" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="P17" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q17" t="s">
-        <v>245</v>
-      </c>
-      <c r="R17" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R17" t="s">
+        <v>258</v>
       </c>
       <c r="S17" t="s">
-        <v>245</v>
-      </c>
-      <c r="T17" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T17" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H18" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="O18" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="P18" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q18" t="s">
-        <v>245</v>
-      </c>
-      <c r="R18" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R18" t="s">
+        <v>258</v>
       </c>
       <c r="S18" t="s">
-        <v>245</v>
-      </c>
-      <c r="T18" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T18" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H19" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="O19" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="P19" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q19" t="s">
-        <v>245</v>
-      </c>
-      <c r="R19" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R19" t="s">
+        <v>258</v>
       </c>
       <c r="S19" t="s">
-        <v>245</v>
-      </c>
-      <c r="T19" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T19" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="H20" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s">
         <v>187</v>
       </c>
       <c r="M20" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="N20" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="O20" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="P20" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q20" t="s">
-        <v>245</v>
-      </c>
-      <c r="R20" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R20" t="s">
+        <v>258</v>
       </c>
       <c r="S20" t="s">
-        <v>245</v>
-      </c>
-      <c r="T20" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T20" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H21" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
         <v>187</v>
       </c>
       <c r="M21" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="N21" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="O21" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P21" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q21" t="s">
-        <v>245</v>
-      </c>
-      <c r="R21" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R21" t="s">
+        <v>258</v>
       </c>
       <c r="S21" t="s">
-        <v>245</v>
-      </c>
-      <c r="T21" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T21" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H22" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s">
         <v>187</v>
       </c>
       <c r="M22" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="N22" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q22" t="s">
-        <v>245</v>
-      </c>
-      <c r="R22" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R22" t="s">
+        <v>258</v>
       </c>
       <c r="S22" t="s">
-        <v>245</v>
-      </c>
-      <c r="T22" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T22" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H23" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="K23" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s">
         <v>187</v>
       </c>
       <c r="M23" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q23" t="s">
-        <v>245</v>
-      </c>
-      <c r="R23" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R23" t="s">
+        <v>258</v>
       </c>
       <c r="S23" t="s">
-        <v>245</v>
-      </c>
-      <c r="T23" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T23" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H24" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q24" t="s">
-        <v>245</v>
-      </c>
-      <c r="R24" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R24" t="s">
+        <v>258</v>
       </c>
       <c r="S24" t="s">
-        <v>245</v>
-      </c>
-      <c r="T24" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T24" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H25" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J25" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M25" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P25" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q25" t="s">
-        <v>245</v>
-      </c>
-      <c r="R25" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R25" t="s">
+        <v>258</v>
       </c>
       <c r="S25" t="s">
-        <v>245</v>
-      </c>
-      <c r="T25" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H26" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J26" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
         <v>187</v>
       </c>
       <c r="M26" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="N26" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q26" t="s">
-        <v>245</v>
-      </c>
-      <c r="R26" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R26" t="s">
+        <v>258</v>
       </c>
       <c r="S26" t="s">
-        <v>245</v>
-      </c>
-      <c r="T26" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T26" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J27" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K27" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s">
         <v>187</v>
       </c>
       <c r="M27" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="N27" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P27" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q27" t="s">
-        <v>245</v>
-      </c>
-      <c r="R27" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R27" t="s">
+        <v>258</v>
       </c>
       <c r="S27" t="s">
-        <v>245</v>
-      </c>
-      <c r="T27" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T27" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H28" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J28" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K28" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M28" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="O28" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P28" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q28" t="s">
-        <v>245</v>
-      </c>
-      <c r="R28" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R28" t="s">
+        <v>258</v>
       </c>
       <c r="S28" t="s">
-        <v>245</v>
-      </c>
-      <c r="T28" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T28" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H29" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="I29" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J29" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K29" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M29" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N29" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="O29" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P29" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q29" t="s">
-        <v>245</v>
-      </c>
-      <c r="R29" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R29" t="s">
+        <v>258</v>
       </c>
       <c r="S29" t="s">
-        <v>245</v>
-      </c>
-      <c r="T29" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T29" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G30" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H30" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I30" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J30" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K30" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M30" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N30" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P30" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q30" t="s">
-        <v>245</v>
-      </c>
-      <c r="R30" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R30" t="s">
+        <v>258</v>
       </c>
       <c r="S30" t="s">
-        <v>245</v>
-      </c>
-      <c r="T30" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T30" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="B31" t="s">
         <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G31" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I31" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J31" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K31" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="L31" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M31" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="N31" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="O31" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P31" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q31" t="s">
-        <v>245</v>
-      </c>
-      <c r="R31" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R31" t="s">
+        <v>258</v>
       </c>
       <c r="S31" t="s">
-        <v>245</v>
-      </c>
-      <c r="T31" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T31" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F32" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H32" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I32" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J32" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K32" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M32" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N32" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="O32" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="P32" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q32" t="s">
-        <v>245</v>
-      </c>
-      <c r="R32" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R32" t="s">
+        <v>258</v>
       </c>
       <c r="S32" t="s">
-        <v>245</v>
-      </c>
-      <c r="T32" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T32" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G33" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H33" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="I33" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J33" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K33" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="L33" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M33" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="N33" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="O33" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q33" t="s">
-        <v>245</v>
-      </c>
-      <c r="R33" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R33" t="s">
+        <v>258</v>
       </c>
       <c r="S33" t="s">
-        <v>245</v>
-      </c>
-      <c r="T33" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T33" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F34" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G34" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H34" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I34" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J34" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K34" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L34" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="O34" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="P34" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q34" t="s">
-        <v>245</v>
-      </c>
-      <c r="R34" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R34" t="s">
+        <v>258</v>
       </c>
       <c r="S34" t="s">
-        <v>245</v>
-      </c>
-      <c r="T34" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T34" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G35" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H35" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I35" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J35" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K35" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M35" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N35" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="O35" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P35" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q35" t="s">
-        <v>245</v>
-      </c>
-      <c r="R35" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R35" t="s">
+        <v>258</v>
       </c>
       <c r="S35" t="s">
-        <v>245</v>
-      </c>
-      <c r="T35" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T35" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F36" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H36" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="I36" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J36" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K36" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M36" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="N36" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="O36" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q36" t="s">
-        <v>245</v>
-      </c>
-      <c r="R36" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R36" t="s">
+        <v>258</v>
       </c>
       <c r="S36" t="s">
-        <v>245</v>
-      </c>
-      <c r="T36" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T36" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E37" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F37" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G37" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H37" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I37" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J37" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K37" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M37" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N37" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="O37" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P37" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q37" t="s">
-        <v>245</v>
-      </c>
-      <c r="R37" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R37" t="s">
+        <v>258</v>
       </c>
       <c r="S37" t="s">
-        <v>245</v>
-      </c>
-      <c r="T37" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T37" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>39.0</v>
+        <v>37.0</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G38" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H38" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I38" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J38" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K38" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M38" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="N38" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="O38" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q38" t="s">
-        <v>245</v>
-      </c>
-      <c r="R38" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R38" t="s">
+        <v>258</v>
       </c>
       <c r="S38" t="s">
-        <v>245</v>
-      </c>
-      <c r="T38" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T38" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G39" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="H39" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I39" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J39" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K39" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M39" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="N39" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="O39" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="P39" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q39" t="s">
-        <v>245</v>
-      </c>
-      <c r="R39" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R39" t="s">
+        <v>258</v>
       </c>
       <c r="S39" t="s">
-        <v>245</v>
-      </c>
-      <c r="T39" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T39" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G40" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H40" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="I40" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J40" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K40" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M40" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="N40" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="O40" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="P40" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q40" t="s">
-        <v>245</v>
-      </c>
-      <c r="R40" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R40" t="s">
+        <v>258</v>
       </c>
       <c r="S40" t="s">
-        <v>245</v>
-      </c>
-      <c r="T40" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T40" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G41" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H41" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I41" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J41" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K41" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="L41" t="s">
         <v>187</v>
       </c>
       <c r="M41" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N41" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="O41" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P41" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q41" t="s">
-        <v>245</v>
-      </c>
-      <c r="R41" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R41" t="s">
+        <v>258</v>
       </c>
       <c r="S41" t="s">
-        <v>245</v>
-      </c>
-      <c r="T41" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T41" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="B42" t="s">
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E42" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G42" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H42" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I42" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J42" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K42" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="L42" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M42" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="N42" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="O42" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="P42" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q42" t="s">
-        <v>245</v>
-      </c>
-      <c r="R42" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R42" t="s">
+        <v>258</v>
       </c>
       <c r="S42" t="s">
-        <v>245</v>
-      </c>
-      <c r="T42" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T42" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G43" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="H43" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I43" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J43" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K43" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L43" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M43" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="N43" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="O43" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q43" t="s">
-        <v>245</v>
-      </c>
-      <c r="R43" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R43" t="s">
+        <v>258</v>
       </c>
       <c r="S43" t="s">
-        <v>245</v>
-      </c>
-      <c r="T43" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T43" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G44" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H44" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="I44" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J44" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K44" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L44" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="M44" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="N44" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="O44" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="P44" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q44" t="s">
-        <v>245</v>
-      </c>
-      <c r="R44" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R44" t="s">
+        <v>258</v>
       </c>
       <c r="S44" t="s">
-        <v>245</v>
-      </c>
-      <c r="T44" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T44" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>49.0</v>
+        <v>44.0</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F45" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G45" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H45" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I45" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J45" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="L45" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M45" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="N45" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="O45" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="P45" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q45" t="s">
-        <v>245</v>
-      </c>
-      <c r="R45" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R45" t="s">
+        <v>258</v>
       </c>
       <c r="S45" t="s">
-        <v>245</v>
-      </c>
-      <c r="T45" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T45" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="B46" t="s">
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G46" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="H46" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I46" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J46" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K46" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L46" t="s">
         <v>187</v>
       </c>
       <c r="M46" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="N46" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="O46" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q46" t="s">
-        <v>245</v>
-      </c>
-      <c r="R46" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="R46" t="s">
+        <v>258</v>
       </c>
       <c r="S46" t="s">
-        <v>245</v>
-      </c>
-      <c r="T46" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="T46" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>30.0</v>
+        <v>46.0</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F47" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G47" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H47" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I47" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J47" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K47" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M47" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="N47" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="O47" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="P47" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q47" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="R47" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="S47" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="T47" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48" t="s">
+        <v>186</v>
+      </c>
+      <c r="J48" t="s">
+        <v>190</v>
+      </c>
+      <c r="K48" t="s">
+        <v>191</v>
+      </c>
+      <c r="L48" t="s">
+        <v>196</v>
+      </c>
+      <c r="M48" t="s">
+        <v>198</v>
+      </c>
+      <c r="N48" t="s">
+        <v>248</v>
+      </c>
+      <c r="O48" t="s">
+        <v>252</v>
+      </c>
+      <c r="P48" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>257</v>
+      </c>
+      <c r="R48" t="s">
+        <v>258</v>
+      </c>
+      <c r="S48" t="s">
+        <v>257</v>
+      </c>
+      <c r="T48" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" t="s">
+        <v>183</v>
+      </c>
+      <c r="I49" t="s">
+        <v>186</v>
+      </c>
+      <c r="J49" t="s">
+        <v>188</v>
+      </c>
+      <c r="K49" t="s">
+        <v>195</v>
+      </c>
+      <c r="L49" t="s">
+        <v>196</v>
+      </c>
+      <c r="M49" t="s">
+        <v>199</v>
+      </c>
+      <c r="N49" t="s">
+        <v>249</v>
+      </c>
+      <c r="O49" t="s">
+        <v>252</v>
+      </c>
+      <c r="P49" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>257</v>
+      </c>
+      <c r="R49" t="s">
+        <v>258</v>
+      </c>
+      <c r="S49" t="s">
+        <v>257</v>
+      </c>
+      <c r="T49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
         <v>164</v>
       </c>
-      <c r="G48" t="s">
+      <c r="E50" t="s">
         <v>168</v>
       </c>
-      <c r="H48" t="s">
+      <c r="F50" t="s">
         <v>172</v>
       </c>
-      <c r="I48" t="s">
+      <c r="G50" t="s">
         <v>177</v>
       </c>
-      <c r="J48" t="s">
-        <v>179</v>
-      </c>
-      <c r="K48" t="s">
-        <v>183</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="H50" t="s">
+        <v>185</v>
+      </c>
+      <c r="I50" t="s">
+        <v>187</v>
+      </c>
+      <c r="J50" t="s">
+        <v>190</v>
+      </c>
+      <c r="K50" t="s">
+        <v>192</v>
+      </c>
+      <c r="L50" t="s">
+        <v>196</v>
+      </c>
+      <c r="M50" t="s">
+        <v>201</v>
+      </c>
+      <c r="N50" t="s">
+        <v>250</v>
+      </c>
+      <c r="O50" t="s">
+        <v>253</v>
+      </c>
+      <c r="P50" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>257</v>
+      </c>
+      <c r="R50" t="s">
+        <v>258</v>
+      </c>
+      <c r="S50" t="s">
+        <v>257</v>
+      </c>
+      <c r="T50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" t="s">
         <v>177</v>
       </c>
-      <c r="M48" t="s">
+      <c r="H51" t="s">
+        <v>185</v>
+      </c>
+      <c r="I51" t="s">
+        <v>187</v>
+      </c>
+      <c r="J51" t="s">
         <v>189</v>
       </c>
-      <c r="N48" t="s">
-        <v>239</v>
-      </c>
-      <c r="O48" t="s">
-        <v>241</v>
-      </c>
-      <c r="P48" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>246</v>
-      </c>
-      <c r="R48" t="s">
-        <v>248</v>
-      </c>
-      <c r="S48" t="s">
-        <v>246</v>
-      </c>
-      <c r="T48" t="s">
-        <v>250</v>
+      <c r="K51" t="s">
+        <v>193</v>
+      </c>
+      <c r="L51" t="s">
+        <v>187</v>
+      </c>
+      <c r="M51" t="s">
+        <v>197</v>
+      </c>
+      <c r="N51" t="s">
+        <v>251</v>
+      </c>
+      <c r="O51" t="s">
+        <v>253</v>
+      </c>
+      <c r="P51" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>257</v>
+      </c>
+      <c r="R51" t="s">
+        <v>258</v>
+      </c>
+      <c r="S51" t="s">
+        <v>257</v>
+      </c>
+      <c r="T51" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
